--- a/dailyWorkReports/2024-02-02「あさか丸」日勤ー作業日報(1).xlsx
+++ b/dailyWorkReports/2024-02-02「あさか丸」日勤ー作業日報(1).xlsx
@@ -2412,9 +2412,8 @@
           <t>使用時間計</t>
         </is>
       </c>
-      <c r="V19" s="35">
-        <f>SUM(M7:M20)</f>
-        <v/>
+      <c r="V19" s="35" t="n">
+        <v>0.2395833333333333</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
@@ -2475,6 +2474,11 @@
         </is>
       </c>
       <c r="D22" s="155" t="n"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N22" s="7" t="n"/>
       <c r="P22" s="20" t="n"/>
       <c r="Q22" s="165" t="n"/>
@@ -2495,6 +2499,11 @@
         </is>
       </c>
       <c r="D23" s="166" t="n"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="N23" s="7" t="n"/>
       <c r="P23" s="20" t="n"/>
       <c r="Q23" s="165" t="n"/>
